--- a/data/trans_dic/P25_6-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_6-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,7%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 19,93</t>
+          <t>6,4; 19,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,38</t>
+          <t>7,41; 17,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 16,16</t>
+          <t>7,75; 15,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 13,11</t>
+          <t>6,96; 20,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 19,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 20,51</t>
+          <t>10,58; 25,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,16</t>
+          <t>10,81; 20,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 18,41</t>
+          <t>13,12; 21,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,66</t>
+          <t>13,44; 26,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,38; 19,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>10,12; 16,88</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,66; 17,45</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 21,83</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,59</t>
+          <t>3,83; 8,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,89</t>
+          <t>3,24; 6,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,2</t>
+          <t>2,92; 6,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,53</t>
+          <t>2,88; 7,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,28</t>
+          <t>2,45; 9,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,47</t>
+          <t>2,35; 5,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,4</t>
+          <t>3,48; 9,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,69</t>
+          <t>4,52; 10,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,93</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 5,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 6,94</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 7,8</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,39%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,87</t>
+          <t>2,34; 10,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,83</t>
+          <t>2,58; 6,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,3</t>
+          <t>3,68; 8,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,41</t>
+          <t>3,41; 10,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,9</t>
+          <t>0,39; 3,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,43</t>
+          <t>1,37; 4,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,17</t>
+          <t>0,59; 3,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,48</t>
+          <t>1,12; 5,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 5,94</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 5,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 5,37</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 6,55</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,14</t>
+          <t>4,06; 8,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,55</t>
+          <t>1,82; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,59</t>
+          <t>4,41; 11,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,23</t>
+          <t>3,91; 8,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,99</t>
+          <t>4,84; 10,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 6,59</t>
+          <t>3,88; 9,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 7,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 7,11</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 9,13</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 8,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 6,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 7,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 8,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 7,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 7,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 8,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 9,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 7,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 6,62</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 7,86</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 8,71</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41401</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62906</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>82973</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>56520</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70069</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>93522</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>152210</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>125172</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>111470</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>156427</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>235183</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>181691</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21716; 66362</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39281; 91358</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56424; 113983</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31144; 92932</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>44365; 105718</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69025; 127875</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>117901; 194093</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86707; 169749</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>78766; 146561</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>118272; 197286</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>189683; 283948</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>130091; 238534</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57886</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71137</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50552</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46566</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45761</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80157</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73267</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>103124</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>103647</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>151293</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>123819</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35685; 83001</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39124; 83541</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47296; 102443</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30646; 83055</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24392; 93438</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28859; 68834</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52426; 139673</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48906; 116760</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72341; 152779</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>77678; 134550</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>115815; 216748</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>86681; 167398</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37181</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62952</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50174</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9643</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24648</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16184</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22795</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>44649</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>61829</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>79136</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>72969</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16719; 72831</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21787; 58419</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40151; 96425</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28249; 87756</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2963; 24147</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12914; 43651</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6855; 35998</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10029; 44965</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>24660; 88147</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>40858; 89956</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>52355; 121090</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>45308; 113081</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>90639</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29617</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75523</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>79321</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55161</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62554</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>169960</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>84778</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>138077</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59213; 122027</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15674; 49855</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48486; 121287</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>54684; 113652</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36911; 80748</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38213; 97324</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>131038; 219927</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>59090; 115454</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>97761; 190207</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>223604</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>187589</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>217062</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>232768</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>205599</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>219092</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>248550</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>283788</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>429203</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>406681</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>465612</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>516556</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>176091; 284536</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>148735; 232208</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>176759; 273207</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>182281; 301689</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>161838; 265457</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>179408; 268519</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>201083; 311683</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>219244; 345398</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>360638; 520676</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>342908; 464356</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>401339; 550693</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>435375; 613888</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
